--- a/data/processed/basaltic_glasses/kraw_summaries_D2872.xlsx
+++ b/data/processed/basaltic_glasses/kraw_summaries_D2872.xlsx
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F2">
         <v>0.97</v>
@@ -525,19 +525,19 @@
         <v>1.16</v>
       </c>
       <c r="I2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J2">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="K2">
-        <v>5.12</v>
+        <v>5.3</v>
       </c>
       <c r="L2">
         <v>1.16</v>
       </c>
       <c r="M2">
-        <v>24.63</v>
+        <v>6.42</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F3">
         <v>1.02</v>
@@ -566,22 +566,22 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="I3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3">
-        <v>4.93</v>
+        <v>4.58</v>
       </c>
       <c r="L3">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M3">
-        <v>24.6</v>
+        <v>5.84</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F4">
         <v>0.87</v>
@@ -610,22 +610,22 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J4">
         <v>0.87</v>
       </c>
       <c r="K4">
-        <v>5.78</v>
+        <v>6.55</v>
       </c>
       <c r="L4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="M4">
-        <v>24.78</v>
+        <v>7.48</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F5">
         <v>0.62</v>
@@ -654,22 +654,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="I5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J5">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="K5">
-        <v>19.71</v>
+        <v>20.48</v>
       </c>
       <c r="L5">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="M5">
-        <v>31.13</v>
+        <v>20.79</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F6">
         <v>0.91</v>
@@ -701,19 +701,19 @@
         <v>1.1</v>
       </c>
       <c r="I6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J6">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K6">
-        <v>6.77</v>
+        <v>6.52</v>
       </c>
       <c r="L6">
         <v>1.1</v>
       </c>
       <c r="M6">
-        <v>25.03</v>
+        <v>7.45</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F7">
         <v>0.73</v>
@@ -745,19 +745,19 @@
         <v>0.87</v>
       </c>
       <c r="I7">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J7">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K7">
-        <v>9.31</v>
+        <v>7.46</v>
       </c>
       <c r="L7">
         <v>0.87</v>
       </c>
       <c r="M7">
-        <v>25.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F8">
         <v>0.68</v>
@@ -789,19 +789,19 @@
         <v>0.83</v>
       </c>
       <c r="I8">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J8">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K8">
-        <v>8.59</v>
+        <v>9.26</v>
       </c>
       <c r="L8">
         <v>0.83</v>
       </c>
       <c r="M8">
-        <v>25.58</v>
+        <v>9.94</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F9">
         <v>0.83</v>
@@ -830,22 +830,22 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J9">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K9">
-        <v>7.03</v>
+        <v>7.29</v>
       </c>
       <c r="L9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>25.1</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F10">
         <v>0.74</v>
@@ -874,22 +874,22 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I10">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J10">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K10">
-        <v>6.54</v>
+        <v>6.97</v>
       </c>
       <c r="L10">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M10">
-        <v>24.97</v>
+        <v>7.85</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F11">
         <v>0.79</v>
@@ -918,22 +918,22 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I11">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J11">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="K11">
-        <v>14.01</v>
+        <v>16.33</v>
       </c>
       <c r="L11">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M11">
-        <v>27.87</v>
+        <v>16.72</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F12">
         <v>0.87</v>
@@ -962,22 +962,22 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I12">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J12">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K12">
-        <v>13.26</v>
+        <v>15.55</v>
       </c>
       <c r="L12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="M12">
-        <v>27.5</v>
+        <v>15.96</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F13">
         <v>0.65</v>
@@ -1006,22 +1006,22 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="I13">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J13">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="K13">
-        <v>18.62</v>
+        <v>19.36</v>
       </c>
       <c r="L13">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="M13">
-        <v>30.45</v>
+        <v>19.69</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F14">
         <v>0.83</v>
@@ -1050,22 +1050,22 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="I14">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J14">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="K14">
-        <v>12.44</v>
+        <v>12.71</v>
       </c>
       <c r="L14">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="M14">
-        <v>27.12</v>
+        <v>13.21</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F15">
         <v>0.84</v>
@@ -1094,22 +1094,22 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I15">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="K15">
-        <v>14.26</v>
+        <v>14.23</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>14.68</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
